--- a/UrineControlmatrices.xlsx
+++ b/UrineControlmatrices.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pvalues" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -532,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -545,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -589,10 +590,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -602,10 +603,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +652,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -661,7 +662,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="5">
@@ -671,7 +672,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -681,7 +682,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +692,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +702,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -711,7 +712,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +721,9 @@
           <t>PLR</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>19.99999999999998</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -729,7 +732,77 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.5128205128205129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Z Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6415605972938176</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2605792618614212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.054638279974959</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0199569777029328</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9073036977771005</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1821231096426347</v>
       </c>
     </row>
   </sheetData>

--- a/UrineControlmatrices.xlsx
+++ b/UrineControlmatrices.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.975</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="10">
@@ -721,9 +721,7 @@
           <t>PLR</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.99999999999998</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -732,7 +730,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5128205128205129</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -772,11 +770,13 @@
           <t>Sensitivity</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6415605972938176</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2605792618614212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,11 +785,13 @@
           <t>Specificity</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2.054638279974959</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0199569777029328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -799,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9073036977771005</v>
+        <v>0.8163332652783422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1821231096426347</v>
+        <v>0.2071547767691546</v>
       </c>
     </row>
   </sheetData>
